--- a/data_excel/citys.xlsx
+++ b/data_excel/citys.xlsx
@@ -25,7 +25,7 @@
     <t>Hebron</t>
   </si>
   <si>
-    <t>Gaza</t>
+    <t>gaza</t>
   </si>
   <si>
     <t>Jericho</t>
@@ -54,7 +54,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,12 +65,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -102,15 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -424,10 +415,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="15.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -452,7 +443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -462,7 +453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -472,12 +463,12 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
